--- a/procurement_export_noa.xlsx
+++ b/procurement_export_noa.xlsx
@@ -20,24 +20,22 @@
     <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
   </si>
   <si>
-    <t>2022-03-30</t>
-  </si>
-  <si>
-    <t>Ms. Maria Lanlet Cajipe Arzola</t>
-  </si>
-  <si>
-    <t>1-Air Master Enterprise, Inc.</t>
-  </si>
-  <si>
-    <t>#94 P. Paterno St. Brgy. Dela Paz, BiÃ±an City, Laguna.
-BiÃ±an
-Laguna</t>
-  </si>
-  <si>
-    <t>Dear 1-Air Master Enterprise, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of  for the LOREM IPSUMwith  Purchase Order equivalent to Php 250.00 is hereby accepted. </t>
+    <t>2022-03-24</t>
+  </si>
+  <si>
+    <t>Rommel Cordeno Penaflor</t>
+  </si>
+  <si>
+    <t>ASR Computer Trading and Services</t>
+  </si>
+  <si>
+    <t>Blk 14 lot 14 Czandra Homes Banlic Calamba City Laguna</t>
+  </si>
+  <si>
+    <t>Dear ASR Computer Trading and Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of  for the Purchase of ICT Equipment for the Conference Roomwith  Purchase Order equivalent to Php 26,200.00 is hereby accepted. </t>
   </si>
   <si>
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
@@ -58,7 +56,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                                  Ms. Maria Lanlet Cajipe Arzola</t>
+    <t xml:space="preserve">                                  Rommel Cordeno Penaflor</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>

--- a/procurement_export_noa.xlsx
+++ b/procurement_export_noa.xlsx
@@ -20,22 +20,25 @@
     <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
   </si>
   <si>
-    <t>2022-03-24</t>
-  </si>
-  <si>
-    <t>Rommel Cordeno Penaflor</t>
-  </si>
-  <si>
-    <t>ASR Computer Trading and Services</t>
-  </si>
-  <si>
-    <t>Blk 14 lot 14 Czandra Homes Banlic Calamba City Laguna</t>
-  </si>
-  <si>
-    <t>Dear ASR Computer Trading and Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of  for the Purchase of ICT Equipment for the Conference Roomwith  Purchase Order equivalent to Php 26,200.00 is hereby accepted. </t>
+    <t>2022-02-23</t>
+  </si>
+  <si>
+    <t>Glee Star Enterprises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glee Star Enterprises
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 Centennial II Extension St., Pinagbuhatan, Pasig City
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Glee Star Enterprises
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of  for the LOREM IPSUMwith  Purchase Order equivalent to Php 147,200.00 is hereby accepted. </t>
   </si>
   <si>
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
@@ -56,7 +59,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                                  Rommel Cordeno Penaflor</t>
+    <t xml:space="preserve">                                  Glee Star Enterprises</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>

--- a/procurement_export_noa.xlsx
+++ b/procurement_export_noa.xlsx
@@ -15,30 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
   </si>
   <si>
-    <t>2022-02-23</t>
-  </si>
-  <si>
-    <t>Glee Star Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glee Star Enterprises
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102 Centennial II Extension St., Pinagbuhatan, Pasig City
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Glee Star Enterprises
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of  for the LOREM IPSUMwith  Purchase Order equivalent to Php 147,200.00 is hereby accepted. </t>
+    <t>January 12, 2023</t>
+  </si>
+  <si>
+    <t>16/35 MM Production Supply</t>
+  </si>
+  <si>
+    <t>UG22-23 Star Centrum Bldg. #317 Gil Puyat Ave. Makati City</t>
+  </si>
+  <si>
+    <t>Dear 16/35 MM Production Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of  for the dddwith  Purchase Order equivalent to Php 1,000.00 is hereby accepted. </t>
   </si>
   <si>
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
@@ -59,7 +53,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                                  Glee Star Enterprises</t>
+    <t xml:space="preserve">                                  16/35 MM Production Supply</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>
@@ -532,22 +526,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9" customHeight="1" ht="27.6">
       <c r="A22" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -563,37 +557,37 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -601,7 +595,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
